--- a/Ships/Script/Shuttle_OPS3/LOGS/shuttle_ei/ei_vel_range_xr.xlsx
+++ b/Ships/Script/Shuttle_OPS3/LOGS/shuttle_ei/ei_vel_range_xr.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Storage\Documents\Jupyter\shuttle_ei\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steam\steamapps\common\Kerbal Space Program - 1.12.3\Ships\Script\Shuttle_OPS3\LOGS\shuttle_ei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F89270-D2A0-43F5-83AF-CFEF7BBFD005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC9611-35D0-48FF-B2DC-D289E7A1CA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="990" windowWidth="23700" windowHeight="13425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="dol pad data" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>xrange (nmi)</t>
   </si>
@@ -64,6 +65,15 @@
   </si>
   <si>
     <t>xrange</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>range (nm)</t>
+  </si>
+  <si>
+    <t>ve (m/s)</t>
   </si>
 </sst>
 </file>
@@ -1191,6 +1201,1490 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>7817.8152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7820.5584000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7820.8632000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7821.1680000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7822.9968000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7828.4832000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7832.1408000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7832.7504000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7835.7984000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7836.7128000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7837.3224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7837.6272000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7839.4560000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7841.2848000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7841.5896000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7842.1992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7842.8088000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7846.7712000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7848.2952000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7849.2096000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7850.1240000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7850.1240000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7850.4288000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7851.0384000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7851.0384000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7851.6480000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7852.2576000000008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7852.2576000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7852.5624000000007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7853.1720000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7855.3056000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7856.5248000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7857.4392000000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7857.7440000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7858.9632000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7859.268</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7859.268</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7859.5728000000008</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7859.8776000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7860.1824000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7860.4872000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7860.7920000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7861.0968000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7861.7064</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7862.0112000000008</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7862.0112000000008</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7862.9256000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7863.2304000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7863.5352000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7863.84</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7864.7544000000007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7864.7544000000007</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7867.8024000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7868.1072000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7868.4120000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7868.7168000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7870.8504000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7872.6792000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7872.6792000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7875.1176000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7876.0320000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7876.3368</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7878.7752</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7879.0800000000008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7879.0800000000008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7879.6896000000006</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7880.6040000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7880.6040000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7881.2136</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7881.5184000000008</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7881.5184000000008</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7881.5184000000008</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7881.8232000000007</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7882.1280000000006</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7882.1280000000006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7882.1280000000006</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7882.7376000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7882.7376000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7883.0424000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7883.0424000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7883.9568000000008</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7883.9568000000008</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7884.2616000000007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7884.2616000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7884.5664000000006</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7884.5664000000006</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7884.5664000000006</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7885.1760000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7887.3096000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7887.3096000000005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7887.3096000000005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7888.8336000000008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7890.6624000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7891.5768000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7891.8816000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7891.8816000000006</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7892.1864000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7892.1864000000005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7893.7104000000008</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7893.7104000000008</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7893.7104000000008</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7894.0152000000007</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7894.0152000000007</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7894.0152000000007</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7894.3200000000006</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7894.6248000000005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7894.9296000000004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7894.9296000000004</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7895.8440000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7896.1488000000008</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7896.4536000000007</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7897.0632000000005</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7898.2824000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7898.8920000000007</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7899.5016000000005</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7899.5016000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7900.1112000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7910.7791999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7911.3888000000006</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7924.1904000000004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7924.1904000000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7924.1904000000004</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7931.8104000000003</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7938.8208000000004</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7944.0024000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7948.2696000000005</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7949.7936</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7954.0608000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7959.5472</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7961.3760000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7961.3760000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>7489.4880000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8296.9600000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7674.6880000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8274.7360000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8248.8080000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8002.4920000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8054.348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8143.2440000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8132.1320000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7485.7840000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8033.9760000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8563.648000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8113.6120000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8285.848</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8209.9160000000011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7678.3920000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8109.9080000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8369.1880000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8271.0320000000011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7661.7240000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8108.0560000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8319.1840000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7511.7120000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7500.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8189.5440000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8193.2479999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7680.2440000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8022.8640000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8108.0560000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8337.7039999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8035.8280000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7615.424</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7961.7480000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7802.4760000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7696.9120000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8071.0160000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7835.8120000000008</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8050.6440000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7709.8760000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7680.2440000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7898.7800000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7624.6840000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8152.5040000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8141.3920000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7985.8240000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7871</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8102.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8124.7240000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8037.68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7056.12</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8022.8640000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8039.5320000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7846.924</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7817.2920000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7693.2080000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8102.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7995.0840000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7415.4080000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8061.7560000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7895.076</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8048.7920000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7708.0240000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8106.2040000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7500.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8215.4719999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7808.0320000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7674.6880000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8026.5680000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7896.9280000000008</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7900.6320000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8054.348</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8178.4320000000007</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8152.5040000000008</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8043.2360000000008</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8154.3560000000007</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8183.9880000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8322.8880000000008</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8296.9600000000009</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8148.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8146.9480000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8141.3920000000007</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8087.6840000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8108.0560000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8130.2800000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7769.14</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7826.5520000000006</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8124.7240000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7669.1320000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8048.7920000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8033.9760000000006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8026.5680000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7591.348</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8178.4320000000007</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8200.6560000000009</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7919.152</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8130.2800000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8022.8640000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8056.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7858.0360000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8111.76</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8043.2360000000008</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8182.1360000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8239.5480000000007</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8132.1320000000005</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8039.5320000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8059.9040000000005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8074.72</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8161.7640000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8158.06</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8143.2440000000006</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8058.0520000000006</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7937.6720000000005</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8002.4920000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8071.0160000000005</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8063.6080000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8041.384</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8124.7240000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7526.5280000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7815.4400000000005</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7574.68</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7533.9360000000006</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7796.92</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7382.0720000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7902.4840000000004</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7945.0800000000008</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7767.2880000000005</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7915.4480000000003</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7815.4400000000005</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7846.924</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7632.0920000000006</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7848.7760000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74AB-49BE-BB4A-E3CCE74AF9F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="588347840"/>
+        <c:axId val="567315328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="588347840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567315328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="567315328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588347840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dol pad data'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7589.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7589.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7589.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7528.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7528.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7528.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7528.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7589.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7589.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7620</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7589.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dol pad data'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8083.9800000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7963.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8158.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7869.1480000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7828.4040000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7900.6320000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7850.6280000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8004.3440000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8213.6200000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8204.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8271.0320000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A98-437E-B8D6-2E7BAEA8A63C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="634785440"/>
+        <c:axId val="990599952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="634785440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="990599952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="990599952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634785440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1231,7 +2725,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1788,6 +4394,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A6BABF-4D9C-C30A-3ED8-109A927CDC42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D43715-15FD-31B0-BEBD-C39B68615108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2087,13 +4775,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F133"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2113,7 +4801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>3</v>
       </c>
@@ -2121,7 +4809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25649</v>
       </c>
@@ -2150,7 +4838,7 @@
         <v>0.30480000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>25658</v>
       </c>
@@ -2173,7 +4861,7 @@
         <v>1381.5920000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25659</v>
       </c>
@@ -2196,7 +4884,7 @@
         <v>511.15200000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25660</v>
       </c>
@@ -2219,7 +4907,7 @@
         <v>1335.2920000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25666</v>
       </c>
@@ -2242,7 +4930,7 @@
         <v>412.99600000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25684</v>
       </c>
@@ -2265,7 +4953,7 @@
         <v>1137.1280000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25696</v>
       </c>
@@ -2288,7 +4976,7 @@
         <v>127.78800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25698</v>
       </c>
@@ -2311,7 +4999,7 @@
         <v>924.14800000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>25708</v>
       </c>
@@ -2334,7 +5022,7 @@
         <v>214.83200000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25711</v>
       </c>
@@ -2357,7 +5045,7 @@
         <v>1366.7760000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25713</v>
       </c>
@@ -2380,7 +5068,7 @@
         <v>472.26000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>25714</v>
       </c>
@@ -2403,7 +5091,7 @@
         <v>448.18400000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25720</v>
       </c>
@@ -2426,7 +5114,7 @@
         <v>333.36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25726</v>
       </c>
@@ -2449,7 +5137,7 @@
         <v>116.676</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25727</v>
       </c>
@@ -2472,7 +5160,7 @@
         <v>203.72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25729</v>
       </c>
@@ -2495,7 +5183,7 @@
         <v>5.556</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25731</v>
       </c>
@@ -2518,7 +5206,7 @@
         <v>583.38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25744</v>
       </c>
@@ -2541,7 +5229,7 @@
         <v>427.81200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25749</v>
       </c>
@@ -2564,7 +5252,7 @@
         <v>168.53200000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25752</v>
       </c>
@@ -2587,7 +5275,7 @@
         <v>970.44800000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>25755</v>
       </c>
@@ -2610,7 +5298,7 @@
         <v>266.68799999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25755</v>
       </c>
@@ -2633,7 +5321,7 @@
         <v>640.79200000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25756</v>
       </c>
@@ -2656,7 +5344,7 @@
         <v>700.05600000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25758</v>
       </c>
@@ -2679,7 +5367,7 @@
         <v>1074.1600000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25758</v>
       </c>
@@ -2702,7 +5390,7 @@
         <v>455.59200000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25760</v>
       </c>
@@ -2725,7 +5413,7 @@
         <v>122.232</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25762</v>
       </c>
@@ -2748,7 +5436,7 @@
         <v>911.18400000000008</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25762</v>
       </c>
@@ -2771,7 +5459,7 @@
         <v>153.71600000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25763</v>
       </c>
@@ -2794,7 +5482,7 @@
         <v>581.52800000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>25765</v>
       </c>
@@ -2817,7 +5505,7 @@
         <v>1140.8320000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25772</v>
       </c>
@@ -2840,7 +5528,7 @@
         <v>390.77199999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25776</v>
       </c>
@@ -2863,7 +5551,7 @@
         <v>877.84800000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25779</v>
       </c>
@@ -2886,7 +5574,7 @@
         <v>1185.28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>25780</v>
       </c>
@@ -2909,7 +5597,7 @@
         <v>592.64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>25784</v>
       </c>
@@ -2932,7 +5620,7 @@
         <v>918.5920000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>25785</v>
       </c>
@@ -2955,7 +5643,7 @@
         <v>992.67200000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>25785</v>
       </c>
@@ -2978,7 +5666,7 @@
         <v>1257.508</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>25786</v>
       </c>
@@ -3001,7 +5689,7 @@
         <v>720.428</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>25787</v>
       </c>
@@ -3024,7 +5712,7 @@
         <v>711.16800000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>25788</v>
       </c>
@@ -3047,7 +5735,7 @@
         <v>648.20000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>25789</v>
       </c>
@@ -3070,7 +5758,7 @@
         <v>796.36</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>25790</v>
       </c>
@@ -3093,7 +5781,7 @@
         <v>709.31600000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>25791</v>
       </c>
@@ -3116,7 +5804,7 @@
         <v>103.712</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>25793</v>
       </c>
@@ -3139,7 +5827,7 @@
         <v>151.864</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>25794</v>
       </c>
@@ -3162,7 +5850,7 @@
         <v>333.36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>25794</v>
       </c>
@@ -3185,7 +5873,7 @@
         <v>164.828</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25797</v>
       </c>
@@ -3208,7 +5896,7 @@
         <v>11.112</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>25798</v>
       </c>
@@ -3231,7 +5919,7 @@
         <v>1379.74</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>25799</v>
       </c>
@@ -3254,7 +5942,7 @@
         <v>407.44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>25800</v>
       </c>
@@ -3277,7 +5965,7 @@
         <v>1076.0119999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25803</v>
       </c>
@@ -3300,7 +5988,7 @@
         <v>344.47200000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>25803</v>
       </c>
@@ -3323,7 +6011,7 @@
         <v>1238.9880000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>25813</v>
       </c>
@@ -3346,7 +6034,7 @@
         <v>1464.932</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>25814</v>
       </c>
@@ -3369,7 +6057,7 @@
         <v>1116.7560000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>25815</v>
       </c>
@@ -3392,7 +6080,7 @@
         <v>1224.172</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>25816</v>
       </c>
@@ -3415,7 +6103,7 @@
         <v>433.36799999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>25823</v>
       </c>
@@ -3438,7 +6126,7 @@
         <v>688.94400000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>25829</v>
       </c>
@@ -3461,7 +6149,7 @@
         <v>1281.5840000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25829</v>
       </c>
@@ -3484,7 +6172,7 @@
         <v>127.78800000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>25837</v>
       </c>
@@ -3507,7 +6195,7 @@
         <v>1505.6760000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>25840</v>
       </c>
@@ -3530,7 +6218,7 @@
         <v>1133.424</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>25841</v>
       </c>
@@ -3553,7 +6241,7 @@
         <v>761.17200000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>25849</v>
       </c>
@@ -3576,7 +6264,7 @@
         <v>411.14400000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>25850</v>
       </c>
@@ -3599,7 +6287,7 @@
         <v>1285.288</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>25850</v>
       </c>
@@ -3622,7 +6310,7 @@
         <v>362.99200000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>25852</v>
       </c>
@@ -3645,7 +6333,7 @@
         <v>496.33600000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>25855</v>
       </c>
@@ -3668,7 +6356,7 @@
         <v>703.76</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>25855</v>
       </c>
@@ -3691,7 +6379,7 @@
         <v>1244.5440000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>25857</v>
       </c>
@@ -3714,7 +6402,7 @@
         <v>507.44800000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>25858</v>
       </c>
@@ -3737,7 +6425,7 @@
         <v>788.952</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>25858</v>
       </c>
@@ -3760,7 +6448,7 @@
         <v>696.35200000000009</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>25858</v>
       </c>
@@ -3783,7 +6471,7 @@
         <v>85.192000000000007</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>25859</v>
       </c>
@@ -3806,7 +6494,7 @@
         <v>348.17600000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>25860</v>
       </c>
@@ -3829,7 +6517,7 @@
         <v>1290.8440000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>25860</v>
       </c>
@@ -3852,7 +6540,7 @@
         <v>755.61599999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>25860</v>
       </c>
@@ -3875,7 +6563,7 @@
         <v>261.13200000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>25862</v>
       </c>
@@ -3898,7 +6586,7 @@
         <v>477.81600000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>25862</v>
       </c>
@@ -3921,7 +6609,7 @@
         <v>38.892000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>25863</v>
       </c>
@@ -3944,7 +6632,7 @@
         <v>312.988</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>25863</v>
       </c>
@@ -3967,7 +6655,7 @@
         <v>694.5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>25866</v>
       </c>
@@ -3990,7 +6678,7 @@
         <v>500.04</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>25866</v>
       </c>
@@ -4013,7 +6701,7 @@
         <v>624.12400000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>25867</v>
       </c>
@@ -4036,7 +6724,7 @@
         <v>416.70000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>25867</v>
       </c>
@@ -4059,7 +6747,7 @@
         <v>637.08800000000008</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>25868</v>
       </c>
@@ -4082,7 +6770,7 @@
         <v>701.90800000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>25868</v>
       </c>
@@ -4105,7 +6793,7 @@
         <v>1429.7440000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>25868</v>
       </c>
@@ -4128,7 +6816,7 @@
         <v>46.300000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>25870</v>
       </c>
@@ -4151,7 +6839,7 @@
         <v>900.072</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>25877</v>
       </c>
@@ -4174,7 +6862,7 @@
         <v>133.34399999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>25877</v>
       </c>
@@ -4197,7 +6885,7 @@
         <v>37.04</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>25877</v>
       </c>
@@ -4220,7 +6908,7 @@
         <v>1131.5720000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25882</v>
       </c>
@@ -4243,7 +6931,7 @@
         <v>987.1160000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>25888</v>
       </c>
@@ -4266,7 +6954,7 @@
         <v>48.152000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>25891</v>
       </c>
@@ -4289,7 +6977,7 @@
         <v>62.968000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>25892</v>
       </c>
@@ -4312,7 +7000,7 @@
         <v>1439.0040000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>25892</v>
       </c>
@@ -4335,7 +7023,7 @@
         <v>375.95600000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>25893</v>
       </c>
@@ -4358,7 +7046,7 @@
         <v>374.10400000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>25893</v>
       </c>
@@ -4381,7 +7069,7 @@
         <v>705.61200000000008</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>25898</v>
       </c>
@@ -4404,7 +7092,7 @@
         <v>1413.076</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>25898</v>
       </c>
@@ -4427,7 +7115,7 @@
         <v>696.35200000000009</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>25898</v>
       </c>
@@ -4450,7 +7138,7 @@
         <v>248.16800000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>25899</v>
       </c>
@@ -4473,7 +7161,7 @@
         <v>642.64400000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>25899</v>
       </c>
@@ -4496,7 +7184,7 @@
         <v>177.792</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>25899</v>
       </c>
@@ -4519,7 +7207,7 @@
         <v>690.79600000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>25900</v>
       </c>
@@ -4542,7 +7230,7 @@
         <v>1111.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>25901</v>
       </c>
@@ -4565,7 +7253,7 @@
         <v>370.40000000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>25902</v>
       </c>
@@ -4588,7 +7276,7 @@
         <v>1116.7560000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>25902</v>
       </c>
@@ -4611,7 +7299,7 @@
         <v>714.87200000000007</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>25905</v>
       </c>
@@ -4634,7 +7322,7 @@
         <v>724.13200000000006</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>25906</v>
       </c>
@@ -4657,7 +7345,7 @@
         <v>62.968000000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>25907</v>
       </c>
@@ -4680,7 +7368,7 @@
         <v>3.7040000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>25909</v>
       </c>
@@ -4703,7 +7391,7 @@
         <v>1468.636</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>25913</v>
       </c>
@@ -4726,7 +7414,7 @@
         <v>1194.54</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>25915</v>
       </c>
@@ -4749,7 +7437,7 @@
         <v>1318.624</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>25917</v>
       </c>
@@ -4772,7 +7460,7 @@
         <v>135.196</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>25917</v>
       </c>
@@ -4795,7 +7483,7 @@
         <v>38.892000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>25919</v>
       </c>
@@ -4818,7 +7506,7 @@
         <v>976.00400000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>25954</v>
       </c>
@@ -4841,7 +7529,7 @@
         <v>959.33600000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>25956</v>
       </c>
@@ -4864,7 +7552,7 @@
         <v>963.04000000000008</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>25998</v>
       </c>
@@ -4887,7 +7575,7 @@
         <v>705.61200000000008</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>25998</v>
       </c>
@@ -4910,7 +7598,7 @@
         <v>418.55200000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>25998</v>
       </c>
@@ -4933,7 +7621,7 @@
         <v>1087.124</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>26023</v>
       </c>
@@ -4956,7 +7644,7 @@
         <v>800.06400000000008</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>26046</v>
       </c>
@@ -4979,7 +7667,7 @@
         <v>751.91200000000003</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>26063</v>
       </c>
@@ -5002,7 +7690,7 @@
         <v>318.54400000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>26077</v>
       </c>
@@ -5025,7 +7713,7 @@
         <v>1277.8800000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>26082</v>
       </c>
@@ -5048,7 +7736,7 @@
         <v>496.33600000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>26096</v>
       </c>
@@ -5071,7 +7759,7 @@
         <v>5.556</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>26114</v>
       </c>
@@ -5094,7 +7782,7 @@
         <v>287.06</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>26120</v>
       </c>
@@ -5117,7 +7805,7 @@
         <v>777.84</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>26120</v>
       </c>
@@ -5155,13 +7843,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C45677C-D83C-4F5F-9AC5-5DA75FC49145}">
   <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5172,7 +7864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7817.8152</v>
       </c>
@@ -5183,7 +7875,7 @@
         <v>961.1880000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7820.5584000000008</v>
       </c>
@@ -5194,7 +7886,7 @@
         <v>1381.5920000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7820.8632000000007</v>
       </c>
@@ -5205,7 +7897,7 @@
         <v>511.15200000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7821.1680000000006</v>
       </c>
@@ -5216,7 +7908,7 @@
         <v>1335.2920000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7822.9968000000008</v>
       </c>
@@ -5227,7 +7919,7 @@
         <v>412.99600000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7828.4832000000006</v>
       </c>
@@ -5238,7 +7930,7 @@
         <v>1137.1280000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7832.1408000000001</v>
       </c>
@@ -5249,7 +7941,7 @@
         <v>127.78800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7832.7504000000008</v>
       </c>
@@ -5260,7 +7952,7 @@
         <v>924.14800000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7835.7984000000006</v>
       </c>
@@ -5271,7 +7963,7 @@
         <v>214.83200000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7836.7128000000002</v>
       </c>
@@ -5282,7 +7974,7 @@
         <v>1366.7760000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7837.3224</v>
       </c>
@@ -5293,7 +7985,7 @@
         <v>472.26000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7837.6272000000008</v>
       </c>
@@ -5304,7 +7996,7 @@
         <v>448.18400000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7839.4560000000001</v>
       </c>
@@ -5315,7 +8007,7 @@
         <v>333.36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7841.2848000000004</v>
       </c>
@@ -5326,7 +8018,7 @@
         <v>116.676</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7841.5896000000002</v>
       </c>
@@ -5337,7 +8029,7 @@
         <v>203.72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7842.1992</v>
       </c>
@@ -5348,7 +8040,7 @@
         <v>5.556</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7842.8088000000007</v>
       </c>
@@ -5359,7 +8051,7 @@
         <v>583.38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7846.7712000000001</v>
       </c>
@@ -5370,7 +8062,7 @@
         <v>427.81200000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7848.2952000000005</v>
       </c>
@@ -5381,7 +8073,7 @@
         <v>168.53200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7849.2096000000001</v>
       </c>
@@ -5392,7 +8084,7 @@
         <v>970.44800000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7850.1240000000007</v>
       </c>
@@ -5403,7 +8095,7 @@
         <v>266.68799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7850.1240000000007</v>
       </c>
@@ -5414,7 +8106,7 @@
         <v>640.79200000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7850.4288000000006</v>
       </c>
@@ -5425,7 +8117,7 @@
         <v>700.05600000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7851.0384000000004</v>
       </c>
@@ -5436,7 +8128,7 @@
         <v>1074.1600000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7851.0384000000004</v>
       </c>
@@ -5447,7 +8139,7 @@
         <v>455.59200000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7851.6480000000001</v>
       </c>
@@ -5458,7 +8150,7 @@
         <v>122.232</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7852.2576000000008</v>
       </c>
@@ -5469,7 +8161,7 @@
         <v>911.18400000000008</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7852.2576000000008</v>
       </c>
@@ -5480,7 +8172,7 @@
         <v>153.71600000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7852.5624000000007</v>
       </c>
@@ -5491,7 +8183,7 @@
         <v>581.52800000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7853.1720000000005</v>
       </c>
@@ -5502,7 +8194,7 @@
         <v>1140.8320000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7855.3056000000006</v>
       </c>
@@ -5513,7 +8205,7 @@
         <v>390.77199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7856.5248000000001</v>
       </c>
@@ -5524,7 +8216,7 @@
         <v>877.84800000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7857.4392000000007</v>
       </c>
@@ -5535,7 +8227,7 @@
         <v>1185.28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7857.7440000000006</v>
       </c>
@@ -5546,7 +8238,7 @@
         <v>592.64</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7858.9632000000001</v>
       </c>
@@ -5557,7 +8249,7 @@
         <v>918.5920000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7859.268</v>
       </c>
@@ -5568,7 +8260,7 @@
         <v>992.67200000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7859.268</v>
       </c>
@@ -5579,7 +8271,7 @@
         <v>1257.508</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7859.5728000000008</v>
       </c>
@@ -5590,7 +8282,7 @@
         <v>720.428</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7859.8776000000007</v>
       </c>
@@ -5601,7 +8293,7 @@
         <v>711.16800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7860.1824000000006</v>
       </c>
@@ -5612,7 +8304,7 @@
         <v>648.20000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7860.4872000000005</v>
       </c>
@@ -5623,7 +8315,7 @@
         <v>796.36</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7860.7920000000004</v>
       </c>
@@ -5634,7 +8326,7 @@
         <v>709.31600000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7861.0968000000003</v>
       </c>
@@ -5645,7 +8337,7 @@
         <v>103.712</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7861.7064</v>
       </c>
@@ -5656,7 +8348,7 @@
         <v>151.864</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7862.0112000000008</v>
       </c>
@@ -5667,7 +8359,7 @@
         <v>333.36</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7862.0112000000008</v>
       </c>
@@ -5678,7 +8370,7 @@
         <v>164.828</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7862.9256000000005</v>
       </c>
@@ -5689,7 +8381,7 @@
         <v>11.112</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7863.2304000000004</v>
       </c>
@@ -5700,7 +8392,7 @@
         <v>1379.74</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7863.5352000000003</v>
       </c>
@@ -5711,7 +8403,7 @@
         <v>407.44</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7863.84</v>
       </c>
@@ -5722,7 +8414,7 @@
         <v>1076.0119999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7864.7544000000007</v>
       </c>
@@ -5733,7 +8425,7 @@
         <v>344.47200000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7864.7544000000007</v>
       </c>
@@ -5744,7 +8436,7 @@
         <v>1238.9880000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7867.8024000000005</v>
       </c>
@@ -5755,7 +8447,7 @@
         <v>1464.932</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>7868.1072000000004</v>
       </c>
@@ -5766,7 +8458,7 @@
         <v>1116.7560000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7868.4120000000003</v>
       </c>
@@ -5777,7 +8469,7 @@
         <v>1224.172</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7868.7168000000001</v>
       </c>
@@ -5788,7 +8480,7 @@
         <v>433.36799999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7870.8504000000003</v>
       </c>
@@ -5799,7 +8491,7 @@
         <v>688.94400000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7872.6792000000005</v>
       </c>
@@ -5810,7 +8502,7 @@
         <v>1281.5840000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7872.6792000000005</v>
       </c>
@@ -5821,7 +8513,7 @@
         <v>127.78800000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7875.1176000000005</v>
       </c>
@@ -5832,7 +8524,7 @@
         <v>1505.6760000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7876.0320000000002</v>
       </c>
@@ -5843,7 +8535,7 @@
         <v>1133.424</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7876.3368</v>
       </c>
@@ -5854,7 +8546,7 @@
         <v>761.17200000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7878.7752</v>
       </c>
@@ -5865,7 +8557,7 @@
         <v>411.14400000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7879.0800000000008</v>
       </c>
@@ -5876,7 +8568,7 @@
         <v>1285.288</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7879.0800000000008</v>
       </c>
@@ -5887,7 +8579,7 @@
         <v>362.99200000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7879.6896000000006</v>
       </c>
@@ -5898,7 +8590,7 @@
         <v>496.33600000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7880.6040000000003</v>
       </c>
@@ -5909,7 +8601,7 @@
         <v>703.76</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>7880.6040000000003</v>
       </c>
@@ -5920,7 +8612,7 @@
         <v>1244.5440000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7881.2136</v>
       </c>
@@ -5931,7 +8623,7 @@
         <v>507.44800000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7881.5184000000008</v>
       </c>
@@ -5942,7 +8634,7 @@
         <v>788.952</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7881.5184000000008</v>
       </c>
@@ -5953,7 +8645,7 @@
         <v>696.35200000000009</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7881.5184000000008</v>
       </c>
@@ -5964,7 +8656,7 @@
         <v>85.192000000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7881.8232000000007</v>
       </c>
@@ -5975,7 +8667,7 @@
         <v>348.17600000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7882.1280000000006</v>
       </c>
@@ -5986,7 +8678,7 @@
         <v>1290.8440000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7882.1280000000006</v>
       </c>
@@ -5997,7 +8689,7 @@
         <v>755.61599999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7882.1280000000006</v>
       </c>
@@ -6008,7 +8700,7 @@
         <v>261.13200000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7882.7376000000004</v>
       </c>
@@ -6019,7 +8711,7 @@
         <v>477.81600000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7882.7376000000004</v>
       </c>
@@ -6030,7 +8722,7 @@
         <v>38.892000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7883.0424000000003</v>
       </c>
@@ -6041,7 +8733,7 @@
         <v>312.988</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7883.0424000000003</v>
       </c>
@@ -6052,7 +8744,7 @@
         <v>694.5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7883.9568000000008</v>
       </c>
@@ -6063,7 +8755,7 @@
         <v>500.04</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>7883.9568000000008</v>
       </c>
@@ -6074,7 +8766,7 @@
         <v>624.12400000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7884.2616000000007</v>
       </c>
@@ -6085,7 +8777,7 @@
         <v>416.70000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7884.2616000000007</v>
       </c>
@@ -6096,7 +8788,7 @@
         <v>637.08800000000008</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>7884.5664000000006</v>
       </c>
@@ -6107,7 +8799,7 @@
         <v>701.90800000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>7884.5664000000006</v>
       </c>
@@ -6118,7 +8810,7 @@
         <v>1429.7440000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>7884.5664000000006</v>
       </c>
@@ -6129,7 +8821,7 @@
         <v>46.300000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7885.1760000000004</v>
       </c>
@@ -6140,7 +8832,7 @@
         <v>900.072</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7887.3096000000005</v>
       </c>
@@ -6151,7 +8843,7 @@
         <v>133.34399999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>7887.3096000000005</v>
       </c>
@@ -6162,7 +8854,7 @@
         <v>37.04</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>7887.3096000000005</v>
       </c>
@@ -6173,7 +8865,7 @@
         <v>1131.5720000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7888.8336000000008</v>
       </c>
@@ -6184,7 +8876,7 @@
         <v>987.1160000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7890.6624000000002</v>
       </c>
@@ -6195,7 +8887,7 @@
         <v>48.152000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>7891.5768000000007</v>
       </c>
@@ -6206,7 +8898,7 @@
         <v>62.968000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7891.8816000000006</v>
       </c>
@@ -6217,7 +8909,7 @@
         <v>1439.0040000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>7891.8816000000006</v>
       </c>
@@ -6228,7 +8920,7 @@
         <v>375.95600000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7892.1864000000005</v>
       </c>
@@ -6239,7 +8931,7 @@
         <v>374.10400000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7892.1864000000005</v>
       </c>
@@ -6250,7 +8942,7 @@
         <v>705.61200000000008</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>7893.7104000000008</v>
       </c>
@@ -6261,7 +8953,7 @@
         <v>1413.076</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>7893.7104000000008</v>
       </c>
@@ -6272,7 +8964,7 @@
         <v>696.35200000000009</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>7893.7104000000008</v>
       </c>
@@ -6283,7 +8975,7 @@
         <v>248.16800000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>7894.0152000000007</v>
       </c>
@@ -6294,7 +8986,7 @@
         <v>642.64400000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7894.0152000000007</v>
       </c>
@@ -6305,7 +8997,7 @@
         <v>177.792</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>7894.0152000000007</v>
       </c>
@@ -6316,7 +9008,7 @@
         <v>690.79600000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>7894.3200000000006</v>
       </c>
@@ -6327,7 +9019,7 @@
         <v>1111.2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>7894.6248000000005</v>
       </c>
@@ -6338,7 +9030,7 @@
         <v>370.40000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>7894.9296000000004</v>
       </c>
@@ -6349,7 +9041,7 @@
         <v>1116.7560000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>7894.9296000000004</v>
       </c>
@@ -6360,7 +9052,7 @@
         <v>714.87200000000007</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>7895.8440000000001</v>
       </c>
@@ -6371,7 +9063,7 @@
         <v>724.13200000000006</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>7896.1488000000008</v>
       </c>
@@ -6382,7 +9074,7 @@
         <v>62.968000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>7896.4536000000007</v>
       </c>
@@ -6393,7 +9085,7 @@
         <v>3.7040000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7897.0632000000005</v>
       </c>
@@ -6404,7 +9096,7 @@
         <v>1468.636</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7898.2824000000001</v>
       </c>
@@ -6415,7 +9107,7 @@
         <v>1194.54</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>7898.8920000000007</v>
       </c>
@@ -6426,7 +9118,7 @@
         <v>1318.624</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7899.5016000000005</v>
       </c>
@@ -6437,7 +9129,7 @@
         <v>135.196</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>7899.5016000000005</v>
       </c>
@@ -6448,7 +9140,7 @@
         <v>38.892000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>7900.1112000000003</v>
       </c>
@@ -6459,7 +9151,7 @@
         <v>976.00400000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7910.7791999999999</v>
       </c>
@@ -6470,7 +9162,7 @@
         <v>959.33600000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7911.3888000000006</v>
       </c>
@@ -6481,7 +9173,7 @@
         <v>963.04000000000008</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>7924.1904000000004</v>
       </c>
@@ -6492,7 +9184,7 @@
         <v>705.61200000000008</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7924.1904000000004</v>
       </c>
@@ -6503,7 +9195,7 @@
         <v>418.55200000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>7924.1904000000004</v>
       </c>
@@ -6514,7 +9206,7 @@
         <v>1087.124</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>7931.8104000000003</v>
       </c>
@@ -6525,7 +9217,7 @@
         <v>800.06400000000008</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7938.8208000000004</v>
       </c>
@@ -6536,7 +9228,7 @@
         <v>751.91200000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7944.0024000000003</v>
       </c>
@@ -6547,7 +9239,7 @@
         <v>318.54400000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7948.2696000000005</v>
       </c>
@@ -6558,7 +9250,7 @@
         <v>1277.8800000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7949.7936</v>
       </c>
@@ -6569,7 +9261,7 @@
         <v>496.33600000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>7954.0608000000002</v>
       </c>
@@ -6580,7 +9272,7 @@
         <v>5.556</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7959.5472</v>
       </c>
@@ -6591,7 +9283,7 @@
         <v>287.06</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>7961.3760000000002</v>
       </c>
@@ -6602,7 +9294,7 @@
         <v>777.84</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7961.3760000000002</v>
       </c>
@@ -6615,5 +9307,227 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3110A6-F236-48CE-9689-14EBCD1D1393}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>24900</v>
+      </c>
+      <c r="B2">
+        <v>4365</v>
+      </c>
+      <c r="C2">
+        <f>A2*$G$3</f>
+        <v>7589.52</v>
+      </c>
+      <c r="D2">
+        <f>B2*$F$3</f>
+        <v>8083.9800000000005</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>24900</v>
+      </c>
+      <c r="B3">
+        <v>4300</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C12" si="0">A3*$G$3</f>
+        <v>7589.52</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D12" si="1">B3*$F$3</f>
+        <v>7963.6</v>
+      </c>
+      <c r="F3">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.30480000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>24900</v>
+      </c>
+      <c r="B4">
+        <v>4405</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>7589.52</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>8158.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24700</v>
+      </c>
+      <c r="B5">
+        <v>4249</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>7528.56</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>7869.1480000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>24700</v>
+      </c>
+      <c r="B6">
+        <v>4227</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7528.56</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>7828.4040000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>24700</v>
+      </c>
+      <c r="B7">
+        <v>4266</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7528.56</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>7900.6320000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>24700</v>
+      </c>
+      <c r="B8">
+        <v>4239</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7528.56</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>7850.6280000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24900</v>
+      </c>
+      <c r="B9">
+        <v>4322</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7589.52</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>8004.3440000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>24900</v>
+      </c>
+      <c r="B10">
+        <v>4435</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>7589.52</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>8213.6200000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25000</v>
+      </c>
+      <c r="B11">
+        <v>4430</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7620</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>8204.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24900</v>
+      </c>
+      <c r="B12">
+        <v>4466</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7589.52</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>8271.0320000000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>